--- a/Multi-taxa_data/PLITs/rel_cov_input.xlsx
+++ b/Multi-taxa_data/PLITs/rel_cov_input.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U25"/>
+  <dimension ref="A1:U70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,27 +360,27 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>transect</t>
+          <t>Transect</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>site</t>
+          <t>Site</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Site_Rep</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>depth</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>rep</t>
-        </is>
-      </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>site_depth</t>
+          <t>Replicate</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
@@ -467,287 +467,279 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>SN_D1</t>
+          <t>awa_D1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>SN_D</t>
-        </is>
+      <c r="E2">
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.493</v>
+        <v>0.842</v>
       </c>
       <c r="G2">
-        <v>0.134</v>
+        <v>0.018</v>
       </c>
       <c r="H2">
-        <v>0.034</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.059</v>
       </c>
       <c r="K2">
-        <v>0.162</v>
+        <v>0.046</v>
       </c>
       <c r="L2">
-        <v>0.177</v>
+        <v>0.023</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="O2">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
       <c r="R2">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S2">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T2">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="U2">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>SN_D2</t>
+          <t>awa_D2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>SN_D</t>
-        </is>
+      <c r="E3">
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.333</v>
+        <v>0.88</v>
       </c>
       <c r="G3">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="H3">
+        <v>0.018</v>
+      </c>
+      <c r="I3">
+        <v>0.001</v>
+      </c>
+      <c r="J3">
+        <v>0.004</v>
+      </c>
+      <c r="K3">
+        <v>0.04</v>
+      </c>
+      <c r="L3">
+        <v>0.001</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.04</v>
+      </c>
+      <c r="O3">
+        <v>0.01</v>
+      </c>
+      <c r="P3">
+        <v>0.01</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+      <c r="R3">
         <v>0.03</v>
       </c>
-      <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
-      </c>
-      <c r="K3">
-        <v>0.047</v>
-      </c>
-      <c r="L3">
-        <v>0.576</v>
-      </c>
-      <c r="M3">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="N3">
-        <v>0.22</v>
-      </c>
-      <c r="O3">
-        <v>0.08</v>
-      </c>
-      <c r="P3">
-        <v>0</v>
-      </c>
-      <c r="Q3">
-        <v>0</v>
-      </c>
-      <c r="R3">
-        <v>0</v>
-      </c>
       <c r="S3">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T3">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="U3">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>SN_D3</t>
+          <t>awa_D3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>SN_D</t>
-        </is>
+      <c r="E4">
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.765</v>
+        <v>0.922</v>
       </c>
       <c r="G4">
-        <v>0.151</v>
+        <v>0.01</v>
       </c>
       <c r="H4">
-        <v>0.038</v>
+        <v>0.025</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
+        <v>0.014</v>
+      </c>
+      <c r="K4">
         <v>0.006</v>
       </c>
-      <c r="K4">
-        <v>0</v>
-      </c>
       <c r="L4">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>0.017</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>0.22</v>
+        <v>0.04</v>
       </c>
       <c r="O4">
-        <v>0.08</v>
+        <v>0.01</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
       <c r="R4">
-        <v>0</v>
+        <v>0.03</v>
       </c>
       <c r="S4">
-        <v>0.08</v>
+        <v>0.02</v>
       </c>
       <c r="T4">
-        <v>0.29</v>
+        <v>0.01</v>
       </c>
       <c r="U4">
-        <v>0.01</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>SN_S1</t>
+          <t>awa_S1</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>SN_S</t>
-        </is>
+      <c r="E5">
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.354</v>
+        <v>0.9379999999999999</v>
       </c>
       <c r="G5">
-        <v>0.114</v>
+        <v>0</v>
       </c>
       <c r="H5">
-        <v>0.146</v>
+        <v>0.022</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>0.019</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="L5">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>0.035</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="O5">
+        <v>0.01</v>
+      </c>
+      <c r="P5">
         <v>0.03</v>
       </c>
-      <c r="P5">
-        <v>0.05</v>
-      </c>
       <c r="Q5">
         <v>0</v>
       </c>
@@ -755,74 +747,72 @@
         <v>0.01</v>
       </c>
       <c r="S5">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T5">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U5">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>SN_S2</t>
+          <t>awa_S2</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>SN_S</t>
-        </is>
+      <c r="E6">
+        <v>2</v>
       </c>
       <c r="F6">
-        <v>0.511</v>
+        <v>0.866</v>
       </c>
       <c r="G6">
-        <v>0.122</v>
+        <v>0.022</v>
       </c>
       <c r="H6">
-        <v>0.057</v>
+        <v>0.073</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>0.001</v>
       </c>
       <c r="K6">
-        <v>0.006</v>
+        <v>0.023</v>
       </c>
       <c r="L6">
-        <v>0.285</v>
+        <v>0.001</v>
       </c>
       <c r="M6">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="O6">
+        <v>0.01</v>
+      </c>
+      <c r="P6">
         <v>0.03</v>
       </c>
-      <c r="P6">
-        <v>0.05</v>
-      </c>
       <c r="Q6">
         <v>0</v>
       </c>
@@ -830,49 +820,47 @@
         <v>0.01</v>
       </c>
       <c r="S6">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T6">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>SN_S3</t>
+          <t>awa_S3</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sunabe</t>
+          <t>awa</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>SN_S</t>
-        </is>
+      <c r="E7">
+        <v>3</v>
       </c>
       <c r="F7">
-        <v>0.779</v>
+        <v>0.878</v>
       </c>
       <c r="G7">
-        <v>0.062</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>0.08699999999999999</v>
+        <v>0.073</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -881,23 +869,23 @@
         <v>0.01</v>
       </c>
       <c r="K7">
-        <v>0.008999999999999999</v>
+        <v>0.008</v>
       </c>
       <c r="L7">
-        <v>0.048</v>
+        <v>0.002</v>
       </c>
       <c r="M7">
-        <v>0.004</v>
+        <v>0.003</v>
       </c>
       <c r="N7">
-        <v>0.21</v>
+        <v>0.04</v>
       </c>
       <c r="O7">
+        <v>0.01</v>
+      </c>
+      <c r="P7">
         <v>0.03</v>
       </c>
-      <c r="P7">
-        <v>0.05</v>
-      </c>
       <c r="Q7">
         <v>0</v>
       </c>
@@ -905,85 +893,83 @@
         <v>0.01</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="T7">
-        <v>0.16</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>0.02</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>AW_D1</t>
+          <t>g1_D1</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>AW_D</t>
-        </is>
+      <c r="E8">
+        <v>1</v>
       </c>
       <c r="F8">
-        <v>0.852</v>
+        <v>0.493</v>
       </c>
       <c r="G8">
-        <v>0.018</v>
+        <v>0</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>0.103</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.06</v>
+        <v>0.005</v>
       </c>
       <c r="K8">
-        <v>0.047</v>
+        <v>0.095</v>
       </c>
       <c r="L8">
-        <v>0.023</v>
+        <v>0.274</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
       <c r="N8">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="O8">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P8">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
       <c r="R8">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S8">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="T8">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="U8">
         <v>0</v>
@@ -992,73 +978,71 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AW_D2</t>
+          <t>g1_D2</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>AW_D</t>
-        </is>
+      <c r="E9">
+        <v>2</v>
       </c>
       <c r="F9">
-        <v>0.9330000000000001</v>
+        <v>0.675</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.019</v>
+        <v>0.139</v>
       </c>
       <c r="I9">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>0.004</v>
+        <v>0.012</v>
       </c>
       <c r="K9">
-        <v>0.043</v>
+        <v>0.036</v>
       </c>
       <c r="L9">
-        <v>0.001</v>
+        <v>0.105</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
       <c r="N9">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="O9">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S9">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="T9">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="U9">
         <v>0</v>
@@ -1067,73 +1051,71 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>AW_D3</t>
+          <t>g1_D3</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>AW_D</t>
-        </is>
+      <c r="E10">
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.943</v>
+        <v>0.733</v>
       </c>
       <c r="G10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>0.026</v>
+        <v>0.151</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0.006</v>
+        <v>0.014</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.076</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
       <c r="N10">
-        <v>0.05</v>
+        <v>0.13</v>
       </c>
       <c r="O10">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
       <c r="R10">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="S10">
-        <v>0.02</v>
+        <v>0.04</v>
       </c>
       <c r="T10">
-        <v>0.01</v>
+        <v>0.11</v>
       </c>
       <c r="U10">
         <v>0</v>
@@ -1142,46 +1124,44 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>AW_S1</t>
+          <t>g1_S1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>AW_S</t>
-        </is>
+      <c r="E11">
+        <v>1</v>
       </c>
       <c r="F11">
-        <v>0.954</v>
+        <v>0.693</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.023</v>
+        <v>0.145</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.019</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1190,214 +1170,208 @@
         <v>0</v>
       </c>
       <c r="N11">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="O11">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P11">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
         <v>0.03</v>
       </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0.01</v>
-      </c>
-      <c r="S11">
-        <v>0.01</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
       <c r="U11">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>AW_S2</t>
+          <t>g1_S2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>AW_S</t>
-        </is>
+      <c r="E12">
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.878</v>
+        <v>0.621</v>
       </c>
       <c r="G12">
-        <v>0.023</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0.074</v>
+        <v>0.242</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.001</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0.001</v>
+        <v>0.012</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>0.035</v>
       </c>
       <c r="N12">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="O12">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P12">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+      <c r="T12">
         <v>0.03</v>
       </c>
-      <c r="Q12">
-        <v>0</v>
-      </c>
-      <c r="R12">
-        <v>0.01</v>
-      </c>
-      <c r="S12">
-        <v>0.01</v>
-      </c>
-      <c r="T12">
-        <v>0</v>
-      </c>
       <c r="U12">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>AW_S3</t>
+          <t>g1_S3</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Awa</t>
+          <t>g1</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>AW_S</t>
-        </is>
+      <c r="E13">
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.902</v>
+        <v>0.588</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.075</v>
+        <v>0.103</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0.008</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0.002</v>
+        <v>0.05</v>
       </c>
       <c r="M13">
-        <v>0.003</v>
+        <v>0.218</v>
       </c>
       <c r="N13">
-        <v>0.04</v>
+        <v>0.05</v>
       </c>
       <c r="O13">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="P13">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+      <c r="T13">
         <v>0.03</v>
       </c>
-      <c r="Q13">
-        <v>0</v>
-      </c>
-      <c r="R13">
-        <v>0.01</v>
-      </c>
-      <c r="S13">
-        <v>0.01</v>
-      </c>
-      <c r="T13">
-        <v>0</v>
-      </c>
       <c r="U13">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>ZA_D1</t>
+          <t>g2_D1</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>ZA_D</t>
-        </is>
+      <c r="E14">
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>0.761</v>
+        <v>0.419</v>
       </c>
       <c r="G14">
-        <v>0.097</v>
+        <v>0</v>
       </c>
       <c r="H14">
-        <v>0.078</v>
+        <v>0.127</v>
       </c>
       <c r="I14">
         <v>0.004</v>
@@ -1406,76 +1380,74 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.023</v>
+        <v>0.013</v>
       </c>
       <c r="L14">
-        <v>0.032</v>
+        <v>0.407</v>
       </c>
       <c r="M14">
-        <v>0.004</v>
+        <v>0</v>
       </c>
       <c r="N14">
+        <v>0.06</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
         <v>0.05</v>
       </c>
-      <c r="O14">
-        <v>0.05</v>
-      </c>
-      <c r="P14">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Q14">
         <v>0</v>
       </c>
       <c r="R14">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S14">
         <v>0.01</v>
       </c>
       <c r="T14">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="U14">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>ZA_D2</t>
+          <t>g2_D2</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>ZA_D</t>
-        </is>
+      <c r="E15">
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>0.723</v>
+        <v>0.475</v>
       </c>
       <c r="G15">
-        <v>0.027</v>
+        <v>0</v>
       </c>
       <c r="H15">
-        <v>0.209</v>
+        <v>0.19</v>
       </c>
       <c r="I15">
-        <v>0.002</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
@@ -1484,145 +1456,141 @@
         <v>0</v>
       </c>
       <c r="L15">
-        <v>0.022</v>
+        <v>0.144</v>
       </c>
       <c r="M15">
-        <v>0.017</v>
+        <v>0.174</v>
       </c>
       <c r="N15">
+        <v>0.06</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
         <v>0.05</v>
       </c>
-      <c r="O15">
-        <v>0.05</v>
-      </c>
-      <c r="P15">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Q15">
         <v>0</v>
       </c>
       <c r="R15">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S15">
         <v>0.01</v>
       </c>
       <c r="T15">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="U15">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>ZA_D3</t>
+          <t>g2_D3</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>ZA_D</t>
-        </is>
+      <c r="E16">
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.822</v>
+        <v>0.352</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.137</v>
+        <v>0.09900000000000001</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="K16">
-        <v>0.015</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0.018</v>
+        <v>0.477</v>
       </c>
       <c r="M16">
-        <v>0.008999999999999999</v>
+        <v>0.049</v>
       </c>
       <c r="N16">
+        <v>0.06</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
         <v>0.05</v>
       </c>
-      <c r="O16">
-        <v>0.05</v>
-      </c>
-      <c r="P16">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="Q16">
         <v>0</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.01</v>
       </c>
       <c r="S16">
         <v>0.01</v>
       </c>
       <c r="T16">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
       <c r="U16">
-        <v>0.01</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>ZA_S1</t>
+          <t>g2_S1</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>ZA_S</t>
-        </is>
+      <c r="E17">
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>0.646</v>
+        <v>0.037</v>
       </c>
       <c r="G17">
-        <v>0.007</v>
+        <v>0</v>
       </c>
       <c r="H17">
-        <v>0.294</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1634,19 +1602,19 @@
         <v>0</v>
       </c>
       <c r="L17">
-        <v>0.049</v>
+        <v>0.961</v>
       </c>
       <c r="M17">
-        <v>0.005</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P17">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
@@ -1658,7 +1626,7 @@
         <v>0</v>
       </c>
       <c r="T17">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="U17">
         <v>0</v>
@@ -1667,40 +1635,38 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>ZA_S2</t>
+          <t>g2_S2</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>ZA_S</t>
-        </is>
+      <c r="E18">
+        <v>2</v>
       </c>
       <c r="F18">
-        <v>0.636</v>
+        <v>0.16</v>
       </c>
       <c r="G18">
-        <v>0.056</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>0.286</v>
+        <v>0.005</v>
       </c>
       <c r="I18">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
@@ -1709,19 +1675,19 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0.005</v>
+        <v>0.831</v>
       </c>
       <c r="M18">
-        <v>0.014</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O18">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
@@ -1733,7 +1699,7 @@
         <v>0</v>
       </c>
       <c r="T18">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="U18">
         <v>0</v>
@@ -1742,37 +1708,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>ZA_S3</t>
+          <t>g2_S3</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Zatsun</t>
+          <t>g2</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>ZA_S</t>
-        </is>
+      <c r="E19">
+        <v>3</v>
       </c>
       <c r="F19">
-        <v>0.715</v>
+        <v>0.212</v>
       </c>
       <c r="G19">
-        <v>0.043</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>0.236</v>
+        <v>0.01</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1784,19 +1748,19 @@
         <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.761</v>
       </c>
       <c r="M19">
-        <v>0.006</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>0.04</v>
+        <v>0.09</v>
       </c>
       <c r="O19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
@@ -1808,7 +1772,7 @@
         <v>0</v>
       </c>
       <c r="T19">
-        <v>0.03</v>
+        <v>0.1</v>
       </c>
       <c r="U19">
         <v>0</v>
@@ -1817,61 +1781,59 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>HI_D1</t>
+          <t>hi_D1</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>HI_D</t>
-        </is>
+      <c r="E20">
+        <v>1</v>
       </c>
       <c r="F20">
-        <v>0.386</v>
+        <v>0.333</v>
       </c>
       <c r="G20">
-        <v>0.013</v>
+        <v>0.012</v>
       </c>
       <c r="H20">
-        <v>0.541</v>
+        <v>0.467</v>
       </c>
       <c r="I20">
         <v>0.001</v>
       </c>
       <c r="J20">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="K20">
-        <v>0.023</v>
+        <v>0.02</v>
       </c>
       <c r="L20">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
       <c r="N20">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q20">
         <v>0</v>
@@ -1892,61 +1854,59 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>HI_D2</t>
+          <t>hi_D2</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>HI_D</t>
-        </is>
+      <c r="E21">
+        <v>2</v>
       </c>
       <c r="F21">
-        <v>0.366</v>
+        <v>0.333</v>
       </c>
       <c r="G21">
+        <v>0.013</v>
+      </c>
+      <c r="H21">
+        <v>0.55</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
         <v>0.014</v>
-      </c>
-      <c r="H21">
-        <v>0.604</v>
-      </c>
-      <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
-      </c>
-      <c r="K21">
-        <v>0</v>
-      </c>
-      <c r="L21">
-        <v>0.015</v>
       </c>
       <c r="M21">
         <v>0.001</v>
       </c>
       <c r="N21">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q21">
         <v>0</v>
@@ -1967,37 +1927,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>HI_D3</t>
+          <t>hi_D3</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Deep</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>HI_D</t>
-        </is>
+      <c r="E22">
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.333</v>
+        <v>0.316</v>
       </c>
       <c r="G22">
         <v>0.008</v>
       </c>
       <c r="H22">
-        <v>0.633</v>
+        <v>0.613</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -2009,19 +1967,19 @@
         <v>0</v>
       </c>
       <c r="L22">
-        <v>0.025</v>
+        <v>0.024</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0.03</v>
+        <v>0.01</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>0.05</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="Q22">
         <v>0</v>
@@ -2042,37 +2000,35 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>HI_S1</t>
+          <t>hi_S1</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>HI_S</t>
-        </is>
+      <c r="E23">
+        <v>1</v>
       </c>
       <c r="F23">
-        <v>0.448</v>
+        <v>0.418</v>
       </c>
       <c r="G23">
-        <v>0.016</v>
+        <v>0.015</v>
       </c>
       <c r="H23">
-        <v>0.493</v>
+        <v>0.46</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -2084,19 +2040,19 @@
         <v>0</v>
       </c>
       <c r="L23">
-        <v>0.042</v>
+        <v>0.039</v>
       </c>
       <c r="M23">
         <v>0.001</v>
       </c>
       <c r="N23">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q23">
         <v>0</v>
@@ -2117,37 +2073,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>HI_S2</t>
+          <t>hi_S2</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>HI_S</t>
-        </is>
+      <c r="E24">
+        <v>2</v>
       </c>
       <c r="F24">
-        <v>0.468</v>
+        <v>0.421</v>
       </c>
       <c r="G24">
-        <v>0.012</v>
+        <v>0.01</v>
       </c>
       <c r="H24">
-        <v>0.498</v>
+        <v>0.448</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -2159,19 +2113,19 @@
         <v>0.005</v>
       </c>
       <c r="L24">
-        <v>0.01</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M24">
-        <v>0.007</v>
+        <v>0.006</v>
       </c>
       <c r="N24">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -2192,37 +2146,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>HI_S3</t>
+          <t>hi_S3</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Hizushi</t>
+          <t>hi</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Shallow</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>HI_S</t>
-        </is>
+      <c r="E25">
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.361</v>
+        <v>0.353</v>
       </c>
       <c r="G25">
         <v>0.016</v>
       </c>
       <c r="H25">
-        <v>0.611</v>
+        <v>0.598</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -2237,16 +2189,16 @@
         <v>0.002</v>
       </c>
       <c r="M25">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="N25">
-        <v>0.06</v>
+        <v>0.04</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>0.07000000000000001</v>
+        <v>0.08</v>
       </c>
       <c r="Q25">
         <v>0</v>
@@ -2261,6 +2213,3291 @@
         <v>0.02</v>
       </c>
       <c r="U25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mi_D1</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>0.246</v>
+      </c>
+      <c r="G26">
+        <v>0</v>
+      </c>
+      <c r="H26">
+        <v>0.074</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0.012</v>
+      </c>
+      <c r="L26">
+        <v>0.417</v>
+      </c>
+      <c r="M26">
+        <v>0.049</v>
+      </c>
+      <c r="N26">
+        <v>0.27</v>
+      </c>
+      <c r="O26">
+        <v>0.01</v>
+      </c>
+      <c r="P26">
+        <v>0.06</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
+      <c r="R26">
+        <v>0</v>
+      </c>
+      <c r="S26">
+        <v>0.01</v>
+      </c>
+      <c r="T26">
+        <v>0.23</v>
+      </c>
+      <c r="U26">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>mi_D2</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E27">
+        <v>2</v>
+      </c>
+      <c r="F27">
+        <v>0.6770000000000001</v>
+      </c>
+      <c r="G27">
+        <v>0.025</v>
+      </c>
+      <c r="H27">
+        <v>0.195</v>
+      </c>
+      <c r="I27">
+        <v>0.002</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0.021</v>
+      </c>
+      <c r="M27">
+        <v>0.016</v>
+      </c>
+      <c r="N27">
+        <v>0.27</v>
+      </c>
+      <c r="O27">
+        <v>0.01</v>
+      </c>
+      <c r="P27">
+        <v>0.06</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
+      <c r="R27">
+        <v>0</v>
+      </c>
+      <c r="S27">
+        <v>0.01</v>
+      </c>
+      <c r="T27">
+        <v>0.23</v>
+      </c>
+      <c r="U27">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>mi_D3</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>0.74</v>
+      </c>
+      <c r="G28">
+        <v>0</v>
+      </c>
+      <c r="H28">
+        <v>0.123</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0.013</v>
+      </c>
+      <c r="L28">
+        <v>0.016</v>
+      </c>
+      <c r="M28">
+        <v>0.008</v>
+      </c>
+      <c r="N28">
+        <v>0.27</v>
+      </c>
+      <c r="O28">
+        <v>0.01</v>
+      </c>
+      <c r="P28">
+        <v>0.06</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
+      <c r="R28">
+        <v>0</v>
+      </c>
+      <c r="S28">
+        <v>0.01</v>
+      </c>
+      <c r="T28">
+        <v>0.23</v>
+      </c>
+      <c r="U28">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>mi_S1</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>0.605</v>
+      </c>
+      <c r="G29">
+        <v>0.007</v>
+      </c>
+      <c r="H29">
+        <v>0.275</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <v>0.046</v>
+      </c>
+      <c r="M29">
+        <v>0.004</v>
+      </c>
+      <c r="N29">
+        <v>0.04</v>
+      </c>
+      <c r="O29">
+        <v>0.02</v>
+      </c>
+      <c r="P29">
+        <v>0.03</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <v>0.03</v>
+      </c>
+      <c r="U29">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>mi_S2</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E30">
+        <v>2</v>
+      </c>
+      <c r="F30">
+        <v>0.606</v>
+      </c>
+      <c r="G30">
+        <v>0.053</v>
+      </c>
+      <c r="H30">
+        <v>0.272</v>
+      </c>
+      <c r="I30">
+        <v>0.003</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0.005</v>
+      </c>
+      <c r="M30">
+        <v>0.014</v>
+      </c>
+      <c r="N30">
+        <v>0.04</v>
+      </c>
+      <c r="O30">
+        <v>0.02</v>
+      </c>
+      <c r="P30">
+        <v>0.03</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
+      <c r="R30">
+        <v>0</v>
+      </c>
+      <c r="S30">
+        <v>0</v>
+      </c>
+      <c r="T30">
+        <v>0.03</v>
+      </c>
+      <c r="U30">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>mi_S3</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>mi</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>0.6790000000000001</v>
+      </c>
+      <c r="G31">
+        <v>0.041</v>
+      </c>
+      <c r="H31">
+        <v>0.224</v>
+      </c>
+      <c r="I31">
+        <v>0</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>0</v>
+      </c>
+      <c r="L31">
+        <v>0</v>
+      </c>
+      <c r="M31">
+        <v>0.006</v>
+      </c>
+      <c r="N31">
+        <v>0.04</v>
+      </c>
+      <c r="O31">
+        <v>0.02</v>
+      </c>
+      <c r="P31">
+        <v>0.03</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
+      <c r="R31">
+        <v>0</v>
+      </c>
+      <c r="S31">
+        <v>0</v>
+      </c>
+      <c r="T31">
+        <v>0.03</v>
+      </c>
+      <c r="U31">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>s1_D1</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E32">
+        <v>1</v>
+      </c>
+      <c r="F32">
+        <v>0.54</v>
+      </c>
+      <c r="G32">
+        <v>0</v>
+      </c>
+      <c r="H32">
+        <v>0.38</v>
+      </c>
+      <c r="I32">
+        <v>0.002</v>
+      </c>
+      <c r="J32">
+        <v>0.008</v>
+      </c>
+      <c r="K32">
+        <v>0.033</v>
+      </c>
+      <c r="L32">
+        <v>0</v>
+      </c>
+      <c r="M32">
+        <v>0.003</v>
+      </c>
+      <c r="N32">
+        <v>0.05</v>
+      </c>
+      <c r="O32">
+        <v>0</v>
+      </c>
+      <c r="P32">
+        <v>0.05</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
+      </c>
+      <c r="R32">
+        <v>0.03</v>
+      </c>
+      <c r="S32">
+        <v>0.04</v>
+      </c>
+      <c r="T32">
+        <v>0</v>
+      </c>
+      <c r="U32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>s1_D2</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>0.613</v>
+      </c>
+      <c r="G33">
+        <v>0</v>
+      </c>
+      <c r="H33">
+        <v>0.29</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>0.061</v>
+      </c>
+      <c r="K33">
+        <v>0.028</v>
+      </c>
+      <c r="L33">
+        <v>0</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+      <c r="N33">
+        <v>0.05</v>
+      </c>
+      <c r="O33">
+        <v>0</v>
+      </c>
+      <c r="P33">
+        <v>0.05</v>
+      </c>
+      <c r="Q33">
+        <v>0</v>
+      </c>
+      <c r="R33">
+        <v>0.03</v>
+      </c>
+      <c r="S33">
+        <v>0.04</v>
+      </c>
+      <c r="T33">
+        <v>0</v>
+      </c>
+      <c r="U33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>s1_D3</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>0.52</v>
+      </c>
+      <c r="G34">
+        <v>0</v>
+      </c>
+      <c r="H34">
+        <v>0.358</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="K34">
+        <v>0.093</v>
+      </c>
+      <c r="L34">
+        <v>0</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+      <c r="N34">
+        <v>0.05</v>
+      </c>
+      <c r="O34">
+        <v>0</v>
+      </c>
+      <c r="P34">
+        <v>0.05</v>
+      </c>
+      <c r="Q34">
+        <v>0</v>
+      </c>
+      <c r="R34">
+        <v>0.03</v>
+      </c>
+      <c r="S34">
+        <v>0.04</v>
+      </c>
+      <c r="T34">
+        <v>0</v>
+      </c>
+      <c r="U34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>s1_S1</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E35">
+        <v>1</v>
+      </c>
+      <c r="F35">
+        <v>0.634</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0.287</v>
+      </c>
+      <c r="I35">
+        <v>0.004</v>
+      </c>
+      <c r="J35">
+        <v>0.001</v>
+      </c>
+      <c r="K35">
+        <v>0.033</v>
+      </c>
+      <c r="L35">
+        <v>0.011</v>
+      </c>
+      <c r="M35">
+        <v>0.014</v>
+      </c>
+      <c r="N35">
+        <v>0.02</v>
+      </c>
+      <c r="O35">
+        <v>0</v>
+      </c>
+      <c r="P35">
+        <v>0.04</v>
+      </c>
+      <c r="Q35">
+        <v>0</v>
+      </c>
+      <c r="R35">
+        <v>0.01</v>
+      </c>
+      <c r="S35">
+        <v>0.03</v>
+      </c>
+      <c r="T35">
+        <v>0.01</v>
+      </c>
+      <c r="U35">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>s1_S2</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>0.605</v>
+      </c>
+      <c r="G36">
+        <v>0</v>
+      </c>
+      <c r="H36">
+        <v>0.264</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>0.007</v>
+      </c>
+      <c r="K36">
+        <v>0.094</v>
+      </c>
+      <c r="L36">
+        <v>0</v>
+      </c>
+      <c r="M36">
+        <v>0.008</v>
+      </c>
+      <c r="N36">
+        <v>0.02</v>
+      </c>
+      <c r="O36">
+        <v>0</v>
+      </c>
+      <c r="P36">
+        <v>0.04</v>
+      </c>
+      <c r="Q36">
+        <v>0</v>
+      </c>
+      <c r="R36">
+        <v>0.01</v>
+      </c>
+      <c r="S36">
+        <v>0.03</v>
+      </c>
+      <c r="T36">
+        <v>0.01</v>
+      </c>
+      <c r="U36">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>s1_S3</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>s1</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E37">
+        <v>3</v>
+      </c>
+      <c r="F37">
+        <v>0.602</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0.341</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0.012</v>
+      </c>
+      <c r="K37">
+        <v>0.036</v>
+      </c>
+      <c r="L37">
+        <v>0.005</v>
+      </c>
+      <c r="M37">
+        <v>0</v>
+      </c>
+      <c r="N37">
+        <v>0.02</v>
+      </c>
+      <c r="O37">
+        <v>0</v>
+      </c>
+      <c r="P37">
+        <v>0.04</v>
+      </c>
+      <c r="Q37">
+        <v>0</v>
+      </c>
+      <c r="R37">
+        <v>0.01</v>
+      </c>
+      <c r="S37">
+        <v>0.03</v>
+      </c>
+      <c r="T37">
+        <v>0.01</v>
+      </c>
+      <c r="U37">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>s2_D1</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E38">
+        <v>1</v>
+      </c>
+      <c r="F38">
+        <v>0.454</v>
+      </c>
+      <c r="G38">
+        <v>0</v>
+      </c>
+      <c r="H38">
+        <v>0.349</v>
+      </c>
+      <c r="I38">
+        <v>0.03</v>
+      </c>
+      <c r="J38">
+        <v>0.054</v>
+      </c>
+      <c r="K38">
+        <v>0.08599999999999999</v>
+      </c>
+      <c r="L38">
+        <v>0</v>
+      </c>
+      <c r="M38">
+        <v>0.01</v>
+      </c>
+      <c r="N38">
+        <v>0.03</v>
+      </c>
+      <c r="O38">
+        <v>0</v>
+      </c>
+      <c r="P38">
+        <v>0.08</v>
+      </c>
+      <c r="Q38">
+        <v>0.01</v>
+      </c>
+      <c r="R38">
+        <v>0.11</v>
+      </c>
+      <c r="S38">
+        <v>0.03</v>
+      </c>
+      <c r="T38">
+        <v>0</v>
+      </c>
+      <c r="U38">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>s2_D2</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E39">
+        <v>2</v>
+      </c>
+      <c r="F39">
+        <v>0.471</v>
+      </c>
+      <c r="G39">
+        <v>0</v>
+      </c>
+      <c r="H39">
+        <v>0.393</v>
+      </c>
+      <c r="I39">
+        <v>0.038</v>
+      </c>
+      <c r="J39">
+        <v>0.058</v>
+      </c>
+      <c r="K39">
+        <v>0.021</v>
+      </c>
+      <c r="L39">
+        <v>0</v>
+      </c>
+      <c r="M39">
+        <v>0</v>
+      </c>
+      <c r="N39">
+        <v>0.03</v>
+      </c>
+      <c r="O39">
+        <v>0</v>
+      </c>
+      <c r="P39">
+        <v>0.08</v>
+      </c>
+      <c r="Q39">
+        <v>0.01</v>
+      </c>
+      <c r="R39">
+        <v>0.11</v>
+      </c>
+      <c r="S39">
+        <v>0.03</v>
+      </c>
+      <c r="T39">
+        <v>0</v>
+      </c>
+      <c r="U39">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>s2_D3</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <v>0.407</v>
+      </c>
+      <c r="G40">
+        <v>0</v>
+      </c>
+      <c r="H40">
+        <v>0.246</v>
+      </c>
+      <c r="I40">
+        <v>0.013</v>
+      </c>
+      <c r="J40">
+        <v>0.243</v>
+      </c>
+      <c r="K40">
+        <v>0.073</v>
+      </c>
+      <c r="L40">
+        <v>0</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="N40">
+        <v>0.03</v>
+      </c>
+      <c r="O40">
+        <v>0</v>
+      </c>
+      <c r="P40">
+        <v>0.08</v>
+      </c>
+      <c r="Q40">
+        <v>0.01</v>
+      </c>
+      <c r="R40">
+        <v>0.11</v>
+      </c>
+      <c r="S40">
+        <v>0.03</v>
+      </c>
+      <c r="T40">
+        <v>0</v>
+      </c>
+      <c r="U40">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>s2_S1</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E41">
+        <v>1</v>
+      </c>
+      <c r="F41">
+        <v>0.418</v>
+      </c>
+      <c r="G41">
+        <v>0.014</v>
+      </c>
+      <c r="H41">
+        <v>0.351</v>
+      </c>
+      <c r="I41">
+        <v>0.008</v>
+      </c>
+      <c r="J41">
+        <v>0.133</v>
+      </c>
+      <c r="K41">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L41">
+        <v>0</v>
+      </c>
+      <c r="M41">
+        <v>0.006</v>
+      </c>
+      <c r="N41">
+        <v>0.08</v>
+      </c>
+      <c r="O41">
+        <v>0.01</v>
+      </c>
+      <c r="P41">
+        <v>0.09</v>
+      </c>
+      <c r="Q41">
+        <v>0</v>
+      </c>
+      <c r="R41">
+        <v>0.01</v>
+      </c>
+      <c r="S41">
+        <v>0.04</v>
+      </c>
+      <c r="T41">
+        <v>0</v>
+      </c>
+      <c r="U41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>s2_S2</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>0.575</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0.241</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0.146</v>
+      </c>
+      <c r="K42">
+        <v>0.032</v>
+      </c>
+      <c r="L42">
+        <v>0</v>
+      </c>
+      <c r="M42">
+        <v>0.001</v>
+      </c>
+      <c r="N42">
+        <v>0.08</v>
+      </c>
+      <c r="O42">
+        <v>0.01</v>
+      </c>
+      <c r="P42">
+        <v>0.09</v>
+      </c>
+      <c r="Q42">
+        <v>0</v>
+      </c>
+      <c r="R42">
+        <v>0.01</v>
+      </c>
+      <c r="S42">
+        <v>0.04</v>
+      </c>
+      <c r="T42">
+        <v>0</v>
+      </c>
+      <c r="U42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>s2_S3</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>s2</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E43">
+        <v>3</v>
+      </c>
+      <c r="F43">
+        <v>0.519</v>
+      </c>
+      <c r="G43">
+        <v>0.008</v>
+      </c>
+      <c r="H43">
+        <v>0.182</v>
+      </c>
+      <c r="I43">
+        <v>0.002</v>
+      </c>
+      <c r="J43">
+        <v>0.132</v>
+      </c>
+      <c r="K43">
+        <v>0.11</v>
+      </c>
+      <c r="L43">
+        <v>0.006</v>
+      </c>
+      <c r="M43">
+        <v>0.01</v>
+      </c>
+      <c r="N43">
+        <v>0.08</v>
+      </c>
+      <c r="O43">
+        <v>0.01</v>
+      </c>
+      <c r="P43">
+        <v>0.09</v>
+      </c>
+      <c r="Q43">
+        <v>0</v>
+      </c>
+      <c r="R43">
+        <v>0.01</v>
+      </c>
+      <c r="S43">
+        <v>0.04</v>
+      </c>
+      <c r="T43">
+        <v>0</v>
+      </c>
+      <c r="U43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>sk_S1</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>0.765</v>
+      </c>
+      <c r="G44">
+        <v>0</v>
+      </c>
+      <c r="H44">
+        <v>0.195</v>
+      </c>
+      <c r="I44">
+        <v>0.001</v>
+      </c>
+      <c r="J44">
+        <v>0.008</v>
+      </c>
+      <c r="K44">
+        <v>0.018</v>
+      </c>
+      <c r="L44">
+        <v>0</v>
+      </c>
+      <c r="M44">
+        <v>0.001</v>
+      </c>
+      <c r="N44">
+        <v>0.06</v>
+      </c>
+      <c r="O44">
+        <v>0</v>
+      </c>
+      <c r="P44">
+        <v>0.09</v>
+      </c>
+      <c r="Q44">
+        <v>0</v>
+      </c>
+      <c r="R44">
+        <v>0</v>
+      </c>
+      <c r="S44">
+        <v>0.01</v>
+      </c>
+      <c r="T44">
+        <v>0</v>
+      </c>
+      <c r="U44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>sk_S2</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>0.749</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0.059</v>
+      </c>
+      <c r="I45">
+        <v>0.001</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0.002</v>
+      </c>
+      <c r="L45">
+        <v>0</v>
+      </c>
+      <c r="M45">
+        <v>0</v>
+      </c>
+      <c r="N45">
+        <v>0.06</v>
+      </c>
+      <c r="O45">
+        <v>0</v>
+      </c>
+      <c r="P45">
+        <v>0.09</v>
+      </c>
+      <c r="Q45">
+        <v>0</v>
+      </c>
+      <c r="R45">
+        <v>0</v>
+      </c>
+      <c r="S45">
+        <v>0.01</v>
+      </c>
+      <c r="T45">
+        <v>0</v>
+      </c>
+      <c r="U45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>sk_S3</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>sk</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E46">
+        <v>3</v>
+      </c>
+      <c r="F46">
+        <v>0.66</v>
+      </c>
+      <c r="G46">
+        <v>0</v>
+      </c>
+      <c r="H46">
+        <v>0.226</v>
+      </c>
+      <c r="I46">
+        <v>0.003</v>
+      </c>
+      <c r="J46">
+        <v>0</v>
+      </c>
+      <c r="K46">
+        <v>0</v>
+      </c>
+      <c r="L46">
+        <v>0.001</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+      <c r="N46">
+        <v>0.06</v>
+      </c>
+      <c r="O46">
+        <v>0</v>
+      </c>
+      <c r="P46">
+        <v>0.09</v>
+      </c>
+      <c r="Q46">
+        <v>0</v>
+      </c>
+      <c r="R46">
+        <v>0</v>
+      </c>
+      <c r="S46">
+        <v>0.01</v>
+      </c>
+      <c r="T46">
+        <v>0</v>
+      </c>
+      <c r="U46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>sn_D1</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
+      <c r="F47">
+        <v>0.454</v>
+      </c>
+      <c r="G47">
+        <v>0.123</v>
+      </c>
+      <c r="H47">
+        <v>0.032</v>
+      </c>
+      <c r="I47">
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <v>0.149</v>
+      </c>
+      <c r="L47">
+        <v>0.163</v>
+      </c>
+      <c r="M47">
+        <v>0</v>
+      </c>
+      <c r="N47">
+        <v>0.15</v>
+      </c>
+      <c r="O47">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P47">
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <v>0.08</v>
+      </c>
+      <c r="T47">
+        <v>0.26</v>
+      </c>
+      <c r="U47">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>sn_D2</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>0.299</v>
+      </c>
+      <c r="G48">
+        <v>0.004</v>
+      </c>
+      <c r="H48">
+        <v>0.027</v>
+      </c>
+      <c r="I48">
+        <v>0</v>
+      </c>
+      <c r="J48">
+        <v>0</v>
+      </c>
+      <c r="K48">
+        <v>0.042</v>
+      </c>
+      <c r="L48">
+        <v>0.519</v>
+      </c>
+      <c r="M48">
+        <v>0.008</v>
+      </c>
+      <c r="N48">
+        <v>0.15</v>
+      </c>
+      <c r="O48">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P48">
+        <v>0</v>
+      </c>
+      <c r="Q48">
+        <v>0</v>
+      </c>
+      <c r="R48">
+        <v>0</v>
+      </c>
+      <c r="S48">
+        <v>0.08</v>
+      </c>
+      <c r="T48">
+        <v>0.26</v>
+      </c>
+      <c r="U48">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>sn_D3</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E49">
+        <v>3</v>
+      </c>
+      <c r="F49">
+        <v>0.601</v>
+      </c>
+      <c r="G49">
+        <v>0.119</v>
+      </c>
+      <c r="H49">
+        <v>0.03</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+      <c r="J49">
+        <v>0.005</v>
+      </c>
+      <c r="K49">
+        <v>0</v>
+      </c>
+      <c r="L49">
+        <v>0.018</v>
+      </c>
+      <c r="M49">
+        <v>0.013</v>
+      </c>
+      <c r="N49">
+        <v>0.15</v>
+      </c>
+      <c r="O49">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="P49">
+        <v>0</v>
+      </c>
+      <c r="Q49">
+        <v>0</v>
+      </c>
+      <c r="R49">
+        <v>0</v>
+      </c>
+      <c r="S49">
+        <v>0.08</v>
+      </c>
+      <c r="T49">
+        <v>0.26</v>
+      </c>
+      <c r="U49">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>sn_S1</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E50">
+        <v>1</v>
+      </c>
+      <c r="F50">
+        <v>0.316</v>
+      </c>
+      <c r="G50">
+        <v>0.102</v>
+      </c>
+      <c r="H50">
+        <v>0.131</v>
+      </c>
+      <c r="I50">
+        <v>0</v>
+      </c>
+      <c r="J50">
+        <v>0</v>
+      </c>
+      <c r="K50">
+        <v>0</v>
+      </c>
+      <c r="L50">
+        <v>0.312</v>
+      </c>
+      <c r="M50">
+        <v>0.031</v>
+      </c>
+      <c r="N50">
+        <v>0.22</v>
+      </c>
+      <c r="O50">
+        <v>0.03</v>
+      </c>
+      <c r="P50">
+        <v>0.04</v>
+      </c>
+      <c r="Q50">
+        <v>0</v>
+      </c>
+      <c r="R50">
+        <v>0.01</v>
+      </c>
+      <c r="S50">
+        <v>0</v>
+      </c>
+      <c r="T50">
+        <v>0.14</v>
+      </c>
+      <c r="U50">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>sn_S2</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>0.483</v>
+      </c>
+      <c r="G51">
+        <v>0.115</v>
+      </c>
+      <c r="H51">
+        <v>0.054</v>
+      </c>
+      <c r="I51">
+        <v>0</v>
+      </c>
+      <c r="J51">
+        <v>0</v>
+      </c>
+      <c r="K51">
+        <v>0.005</v>
+      </c>
+      <c r="L51">
+        <v>0.269</v>
+      </c>
+      <c r="M51">
+        <v>0.018</v>
+      </c>
+      <c r="N51">
+        <v>0.22</v>
+      </c>
+      <c r="O51">
+        <v>0.03</v>
+      </c>
+      <c r="P51">
+        <v>0.04</v>
+      </c>
+      <c r="Q51">
+        <v>0</v>
+      </c>
+      <c r="R51">
+        <v>0.01</v>
+      </c>
+      <c r="S51">
+        <v>0</v>
+      </c>
+      <c r="T51">
+        <v>0.14</v>
+      </c>
+      <c r="U51">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>sn_S3</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>sn</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E52">
+        <v>3</v>
+      </c>
+      <c r="F52">
+        <v>0.755</v>
+      </c>
+      <c r="G52">
+        <v>0.063</v>
+      </c>
+      <c r="H52">
+        <v>0.08500000000000001</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0.01</v>
+      </c>
+      <c r="K52">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="L52">
+        <v>0.046</v>
+      </c>
+      <c r="M52">
+        <v>0.004</v>
+      </c>
+      <c r="N52">
+        <v>0.22</v>
+      </c>
+      <c r="O52">
+        <v>0.03</v>
+      </c>
+      <c r="P52">
+        <v>0.04</v>
+      </c>
+      <c r="Q52">
+        <v>0</v>
+      </c>
+      <c r="R52">
+        <v>0.01</v>
+      </c>
+      <c r="S52">
+        <v>0</v>
+      </c>
+      <c r="T52">
+        <v>0.14</v>
+      </c>
+      <c r="U52">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>yo_D1</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E53">
+        <v>1</v>
+      </c>
+      <c r="F53">
+        <v>0.451</v>
+      </c>
+      <c r="G53">
+        <v>0.052</v>
+      </c>
+      <c r="H53">
+        <v>0.249</v>
+      </c>
+      <c r="I53">
+        <v>0.002</v>
+      </c>
+      <c r="J53">
+        <v>0</v>
+      </c>
+      <c r="K53">
+        <v>0</v>
+      </c>
+      <c r="L53">
+        <v>0.101</v>
+      </c>
+      <c r="M53">
+        <v>0.017</v>
+      </c>
+      <c r="N53">
+        <v>0.21</v>
+      </c>
+      <c r="O53">
+        <v>0.03</v>
+      </c>
+      <c r="P53">
+        <v>0.13</v>
+      </c>
+      <c r="Q53">
+        <v>0</v>
+      </c>
+      <c r="R53">
+        <v>0</v>
+      </c>
+      <c r="S53">
+        <v>0.06</v>
+      </c>
+      <c r="T53">
+        <v>0.05</v>
+      </c>
+      <c r="U53">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>yo_D2</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E54">
+        <v>2</v>
+      </c>
+      <c r="F54">
+        <v>0.348</v>
+      </c>
+      <c r="G54">
+        <v>0</v>
+      </c>
+      <c r="H54">
+        <v>0.329</v>
+      </c>
+      <c r="I54">
+        <v>0.002</v>
+      </c>
+      <c r="J54">
+        <v>0</v>
+      </c>
+      <c r="K54">
+        <v>0</v>
+      </c>
+      <c r="L54">
+        <v>0.06800000000000001</v>
+      </c>
+      <c r="M54">
+        <v>0.055</v>
+      </c>
+      <c r="N54">
+        <v>0.21</v>
+      </c>
+      <c r="O54">
+        <v>0.03</v>
+      </c>
+      <c r="P54">
+        <v>0.13</v>
+      </c>
+      <c r="Q54">
+        <v>0</v>
+      </c>
+      <c r="R54">
+        <v>0</v>
+      </c>
+      <c r="S54">
+        <v>0.06</v>
+      </c>
+      <c r="T54">
+        <v>0.05</v>
+      </c>
+      <c r="U54">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>yo_D3</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E55">
+        <v>3</v>
+      </c>
+      <c r="F55">
+        <v>0.751</v>
+      </c>
+      <c r="G55">
+        <v>0.013</v>
+      </c>
+      <c r="H55">
+        <v>0.075</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>0.005</v>
+      </c>
+      <c r="K55">
+        <v>0.11</v>
+      </c>
+      <c r="L55">
+        <v>0</v>
+      </c>
+      <c r="M55">
+        <v>0</v>
+      </c>
+      <c r="N55">
+        <v>0.21</v>
+      </c>
+      <c r="O55">
+        <v>0.03</v>
+      </c>
+      <c r="P55">
+        <v>0.13</v>
+      </c>
+      <c r="Q55">
+        <v>0</v>
+      </c>
+      <c r="R55">
+        <v>0</v>
+      </c>
+      <c r="S55">
+        <v>0.06</v>
+      </c>
+      <c r="T55">
+        <v>0.05</v>
+      </c>
+      <c r="U55">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>yo_S1</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E56">
+        <v>1</v>
+      </c>
+      <c r="F56">
+        <v>0.448</v>
+      </c>
+      <c r="G56">
+        <v>0</v>
+      </c>
+      <c r="H56">
+        <v>0.361</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>0</v>
+      </c>
+      <c r="K56">
+        <v>0</v>
+      </c>
+      <c r="L56">
+        <v>0.002</v>
+      </c>
+      <c r="M56">
+        <v>0.017</v>
+      </c>
+      <c r="N56">
+        <v>0.02</v>
+      </c>
+      <c r="O56">
+        <v>0</v>
+      </c>
+      <c r="P56">
+        <v>0.02</v>
+      </c>
+      <c r="Q56">
+        <v>0</v>
+      </c>
+      <c r="R56">
+        <v>0</v>
+      </c>
+      <c r="S56">
+        <v>0</v>
+      </c>
+      <c r="T56">
+        <v>0</v>
+      </c>
+      <c r="U56">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>yo_S2</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E57">
+        <v>2</v>
+      </c>
+      <c r="F57">
+        <v>0.462</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0.348</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+      <c r="L57">
+        <v>0.006</v>
+      </c>
+      <c r="M57">
+        <v>0.008</v>
+      </c>
+      <c r="N57">
+        <v>0.02</v>
+      </c>
+      <c r="O57">
+        <v>0</v>
+      </c>
+      <c r="P57">
+        <v>0.02</v>
+      </c>
+      <c r="Q57">
+        <v>0</v>
+      </c>
+      <c r="R57">
+        <v>0</v>
+      </c>
+      <c r="S57">
+        <v>0</v>
+      </c>
+      <c r="T57">
+        <v>0</v>
+      </c>
+      <c r="U57">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>yo_S3</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>yo</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E58">
+        <v>3</v>
+      </c>
+      <c r="F58">
+        <v>0.426</v>
+      </c>
+      <c r="G58">
+        <v>0</v>
+      </c>
+      <c r="H58">
+        <v>0.379</v>
+      </c>
+      <c r="I58">
+        <v>0</v>
+      </c>
+      <c r="J58">
+        <v>0</v>
+      </c>
+      <c r="K58">
+        <v>0</v>
+      </c>
+      <c r="L58">
+        <v>0.01</v>
+      </c>
+      <c r="M58">
+        <v>0.03</v>
+      </c>
+      <c r="N58">
+        <v>0.02</v>
+      </c>
+      <c r="O58">
+        <v>0</v>
+      </c>
+      <c r="P58">
+        <v>0.02</v>
+      </c>
+      <c r="Q58">
+        <v>0</v>
+      </c>
+      <c r="R58">
+        <v>0</v>
+      </c>
+      <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>za_D1</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>0.692</v>
+      </c>
+      <c r="G59">
+        <v>0.088</v>
+      </c>
+      <c r="H59">
+        <v>0.07099999999999999</v>
+      </c>
+      <c r="I59">
+        <v>0.004</v>
+      </c>
+      <c r="J59">
+        <v>0</v>
+      </c>
+      <c r="K59">
+        <v>0.021</v>
+      </c>
+      <c r="L59">
+        <v>0.029</v>
+      </c>
+      <c r="M59">
+        <v>0.003</v>
+      </c>
+      <c r="N59">
+        <v>0.03</v>
+      </c>
+      <c r="O59">
+        <v>0.05</v>
+      </c>
+      <c r="P59">
+        <v>0.06</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0.01</v>
+      </c>
+      <c r="T59">
+        <v>0.01</v>
+      </c>
+      <c r="U59">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>za_D2</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E60">
+        <v>2</v>
+      </c>
+      <c r="F60">
+        <v>0.6770000000000001</v>
+      </c>
+      <c r="G60">
+        <v>0.025</v>
+      </c>
+      <c r="H60">
+        <v>0.195</v>
+      </c>
+      <c r="I60">
+        <v>0.002</v>
+      </c>
+      <c r="J60">
+        <v>0</v>
+      </c>
+      <c r="K60">
+        <v>0</v>
+      </c>
+      <c r="L60">
+        <v>0.021</v>
+      </c>
+      <c r="M60">
+        <v>0.016</v>
+      </c>
+      <c r="N60">
+        <v>0.03</v>
+      </c>
+      <c r="O60">
+        <v>0.05</v>
+      </c>
+      <c r="P60">
+        <v>0.06</v>
+      </c>
+      <c r="Q60">
+        <v>0</v>
+      </c>
+      <c r="R60">
+        <v>0</v>
+      </c>
+      <c r="S60">
+        <v>0.01</v>
+      </c>
+      <c r="T60">
+        <v>0.01</v>
+      </c>
+      <c r="U60">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>za_D3</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E61">
+        <v>3</v>
+      </c>
+      <c r="F61">
+        <v>0.74</v>
+      </c>
+      <c r="G61">
+        <v>0</v>
+      </c>
+      <c r="H61">
+        <v>0.123</v>
+      </c>
+      <c r="I61">
+        <v>0</v>
+      </c>
+      <c r="J61">
+        <v>0</v>
+      </c>
+      <c r="K61">
+        <v>0.013</v>
+      </c>
+      <c r="L61">
+        <v>0.016</v>
+      </c>
+      <c r="M61">
+        <v>0.008</v>
+      </c>
+      <c r="N61">
+        <v>0.03</v>
+      </c>
+      <c r="O61">
+        <v>0.05</v>
+      </c>
+      <c r="P61">
+        <v>0.06</v>
+      </c>
+      <c r="Q61">
+        <v>0</v>
+      </c>
+      <c r="R61">
+        <v>0</v>
+      </c>
+      <c r="S61">
+        <v>0.01</v>
+      </c>
+      <c r="T61">
+        <v>0.01</v>
+      </c>
+      <c r="U61">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>za_S1</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>0.605</v>
+      </c>
+      <c r="G62">
+        <v>0.007</v>
+      </c>
+      <c r="H62">
+        <v>0.275</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <v>0</v>
+      </c>
+      <c r="K62">
+        <v>0</v>
+      </c>
+      <c r="L62">
+        <v>0.046</v>
+      </c>
+      <c r="M62">
+        <v>0.004</v>
+      </c>
+      <c r="N62">
+        <v>0.04</v>
+      </c>
+      <c r="O62">
+        <v>0.02</v>
+      </c>
+      <c r="P62">
+        <v>0.03</v>
+      </c>
+      <c r="Q62">
+        <v>0</v>
+      </c>
+      <c r="R62">
+        <v>0</v>
+      </c>
+      <c r="S62">
+        <v>0</v>
+      </c>
+      <c r="T62">
+        <v>0.03</v>
+      </c>
+      <c r="U62">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>za_S2</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E63">
+        <v>2</v>
+      </c>
+      <c r="F63">
+        <v>0.606</v>
+      </c>
+      <c r="G63">
+        <v>0.053</v>
+      </c>
+      <c r="H63">
+        <v>0.272</v>
+      </c>
+      <c r="I63">
+        <v>0.003</v>
+      </c>
+      <c r="J63">
+        <v>0</v>
+      </c>
+      <c r="K63">
+        <v>0</v>
+      </c>
+      <c r="L63">
+        <v>0.005</v>
+      </c>
+      <c r="M63">
+        <v>0.014</v>
+      </c>
+      <c r="N63">
+        <v>0.04</v>
+      </c>
+      <c r="O63">
+        <v>0.02</v>
+      </c>
+      <c r="P63">
+        <v>0.03</v>
+      </c>
+      <c r="Q63">
+        <v>0</v>
+      </c>
+      <c r="R63">
+        <v>0</v>
+      </c>
+      <c r="S63">
+        <v>0</v>
+      </c>
+      <c r="T63">
+        <v>0.03</v>
+      </c>
+      <c r="U63">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>za_S3</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>za</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E64">
+        <v>3</v>
+      </c>
+      <c r="F64">
+        <v>0.6790000000000001</v>
+      </c>
+      <c r="G64">
+        <v>0.041</v>
+      </c>
+      <c r="H64">
+        <v>0.224</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>0</v>
+      </c>
+      <c r="M64">
+        <v>0.006</v>
+      </c>
+      <c r="N64">
+        <v>0.04</v>
+      </c>
+      <c r="O64">
+        <v>0.02</v>
+      </c>
+      <c r="P64">
+        <v>0.03</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
+        <v>0</v>
+      </c>
+      <c r="S64">
+        <v>0</v>
+      </c>
+      <c r="T64">
+        <v>0.03</v>
+      </c>
+      <c r="U64">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>zp_D1</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>D1</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E65">
+        <v>1</v>
+      </c>
+      <c r="F65">
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>0.86</v>
+      </c>
+      <c r="I65">
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <v>0</v>
+      </c>
+      <c r="K65">
+        <v>0</v>
+      </c>
+      <c r="L65">
+        <v>0</v>
+      </c>
+      <c r="M65">
+        <v>0.007</v>
+      </c>
+      <c r="N65">
+        <v>0.3</v>
+      </c>
+      <c r="O65">
+        <v>0</v>
+      </c>
+      <c r="P65">
+        <v>0.26</v>
+      </c>
+      <c r="Q65">
+        <v>0</v>
+      </c>
+      <c r="R65">
+        <v>0</v>
+      </c>
+      <c r="S65">
+        <v>0</v>
+      </c>
+      <c r="T65">
+        <v>0.01</v>
+      </c>
+      <c r="U65">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>zp_D2</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>D2</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E66">
+        <v>2</v>
+      </c>
+      <c r="F66">
+        <v>0.474</v>
+      </c>
+      <c r="G66">
+        <v>0</v>
+      </c>
+      <c r="H66">
+        <v>0.415</v>
+      </c>
+      <c r="I66">
+        <v>0</v>
+      </c>
+      <c r="J66">
+        <v>0</v>
+      </c>
+      <c r="K66">
+        <v>0</v>
+      </c>
+      <c r="L66">
+        <v>0.013</v>
+      </c>
+      <c r="M66">
+        <v>0.003</v>
+      </c>
+      <c r="N66">
+        <v>0.3</v>
+      </c>
+      <c r="O66">
+        <v>0</v>
+      </c>
+      <c r="P66">
+        <v>0.26</v>
+      </c>
+      <c r="Q66">
+        <v>0</v>
+      </c>
+      <c r="R66">
+        <v>0</v>
+      </c>
+      <c r="S66">
+        <v>0</v>
+      </c>
+      <c r="T66">
+        <v>0.01</v>
+      </c>
+      <c r="U66">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>zp_D3</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>D3</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>Deep</t>
+        </is>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>0.546</v>
+      </c>
+      <c r="G67">
+        <v>0</v>
+      </c>
+      <c r="H67">
+        <v>0.419</v>
+      </c>
+      <c r="I67">
+        <v>0.002</v>
+      </c>
+      <c r="J67">
+        <v>0</v>
+      </c>
+      <c r="K67">
+        <v>0</v>
+      </c>
+      <c r="L67">
+        <v>0.021</v>
+      </c>
+      <c r="M67">
+        <v>0.003</v>
+      </c>
+      <c r="N67">
+        <v>0.3</v>
+      </c>
+      <c r="O67">
+        <v>0</v>
+      </c>
+      <c r="P67">
+        <v>0.26</v>
+      </c>
+      <c r="Q67">
+        <v>0</v>
+      </c>
+      <c r="R67">
+        <v>0</v>
+      </c>
+      <c r="S67">
+        <v>0</v>
+      </c>
+      <c r="T67">
+        <v>0.01</v>
+      </c>
+      <c r="U67">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>zp_S1</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E68">
+        <v>1</v>
+      </c>
+      <c r="F68">
+        <v>0.8</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>0.168</v>
+      </c>
+      <c r="I68">
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <v>0</v>
+      </c>
+      <c r="K68">
+        <v>0</v>
+      </c>
+      <c r="L68">
+        <v>0.013</v>
+      </c>
+      <c r="M68">
+        <v>0.003</v>
+      </c>
+      <c r="N68">
+        <v>0.05</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68">
+        <v>0.06</v>
+      </c>
+      <c r="Q68">
+        <v>0</v>
+      </c>
+      <c r="R68">
+        <v>0</v>
+      </c>
+      <c r="S68">
+        <v>0</v>
+      </c>
+      <c r="T68">
+        <v>0.01</v>
+      </c>
+      <c r="U68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>zp_S2</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E69">
+        <v>2</v>
+      </c>
+      <c r="F69">
+        <v>0.855</v>
+      </c>
+      <c r="G69">
+        <v>0</v>
+      </c>
+      <c r="H69">
+        <v>0.1</v>
+      </c>
+      <c r="I69">
+        <v>0</v>
+      </c>
+      <c r="J69">
+        <v>0</v>
+      </c>
+      <c r="K69">
+        <v>0</v>
+      </c>
+      <c r="L69">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="M69">
+        <v>0.001</v>
+      </c>
+      <c r="N69">
+        <v>0.05</v>
+      </c>
+      <c r="O69">
+        <v>0</v>
+      </c>
+      <c r="P69">
+        <v>0.06</v>
+      </c>
+      <c r="Q69">
+        <v>0</v>
+      </c>
+      <c r="R69">
+        <v>0</v>
+      </c>
+      <c r="S69">
+        <v>0</v>
+      </c>
+      <c r="T69">
+        <v>0.01</v>
+      </c>
+      <c r="U69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>zp_S3</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>zp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>S3</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>Shallow</t>
+        </is>
+      </c>
+      <c r="E70">
+        <v>3</v>
+      </c>
+      <c r="F70">
+        <v>0.901</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0.047</v>
+      </c>
+      <c r="I70">
+        <v>0.004</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+      <c r="L70">
+        <v>0.024</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+      <c r="N70">
+        <v>0.05</v>
+      </c>
+      <c r="O70">
+        <v>0</v>
+      </c>
+      <c r="P70">
+        <v>0.06</v>
+      </c>
+      <c r="Q70">
+        <v>0</v>
+      </c>
+      <c r="R70">
+        <v>0</v>
+      </c>
+      <c r="S70">
+        <v>0</v>
+      </c>
+      <c r="T70">
+        <v>0.01</v>
+      </c>
+      <c r="U70">
         <v>0</v>
       </c>
     </row>

--- a/Multi-taxa_data/PLITs/rel_cov_input.xlsx
+++ b/Multi-taxa_data/PLITs/rel_cov_input.xlsx
@@ -5088,13 +5088,13 @@
         <v>1</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>0.8</v>
       </c>
       <c r="G65">
         <v>0</v>
       </c>
       <c r="H65">
-        <v>0.86</v>
+        <v>0.168</v>
       </c>
       <c r="I65">
         <v>0</v>
@@ -5106,19 +5106,19 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>0.013</v>
       </c>
       <c r="M65">
-        <v>0.007</v>
+        <v>0.003</v>
       </c>
       <c r="N65">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O65">
         <v>0</v>
       </c>
       <c r="P65">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="Q65">
         <v>0</v>
@@ -5161,13 +5161,13 @@
         <v>2</v>
       </c>
       <c r="F66">
-        <v>0.474</v>
+        <v>0.855</v>
       </c>
       <c r="G66">
         <v>0</v>
       </c>
       <c r="H66">
-        <v>0.415</v>
+        <v>0.1</v>
       </c>
       <c r="I66">
         <v>0</v>
@@ -5179,19 +5179,19 @@
         <v>0</v>
       </c>
       <c r="L66">
-        <v>0.013</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="M66">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="N66">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O66">
         <v>0</v>
       </c>
       <c r="P66">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="Q66">
         <v>0</v>
@@ -5234,16 +5234,16 @@
         <v>3</v>
       </c>
       <c r="F67">
-        <v>0.546</v>
+        <v>0.901</v>
       </c>
       <c r="G67">
         <v>0</v>
       </c>
       <c r="H67">
-        <v>0.419</v>
+        <v>0.047</v>
       </c>
       <c r="I67">
-        <v>0.002</v>
+        <v>0.004</v>
       </c>
       <c r="J67">
         <v>0</v>
@@ -5252,19 +5252,19 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>0.021</v>
+        <v>0.024</v>
       </c>
       <c r="M67">
-        <v>0.003</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>0.3</v>
+        <v>0.05</v>
       </c>
       <c r="O67">
         <v>0</v>
       </c>
       <c r="P67">
-        <v>0.26</v>
+        <v>0.06</v>
       </c>
       <c r="Q67">
         <v>0</v>
@@ -5307,13 +5307,13 @@
         <v>1</v>
       </c>
       <c r="F68">
-        <v>0.8</v>
+        <v>0</v>
       </c>
       <c r="G68">
         <v>0</v>
       </c>
       <c r="H68">
-        <v>0.168</v>
+        <v>0.86</v>
       </c>
       <c r="I68">
         <v>0</v>
@@ -5325,19 +5325,19 @@
         <v>0</v>
       </c>
       <c r="L68">
-        <v>0.013</v>
+        <v>0</v>
       </c>
       <c r="M68">
-        <v>0.003</v>
+        <v>0.007</v>
       </c>
       <c r="N68">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="O68">
         <v>0</v>
       </c>
       <c r="P68">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="Q68">
         <v>0</v>
@@ -5380,13 +5380,13 @@
         <v>2</v>
       </c>
       <c r="F69">
-        <v>0.855</v>
+        <v>0.474</v>
       </c>
       <c r="G69">
         <v>0</v>
       </c>
       <c r="H69">
-        <v>0.1</v>
+        <v>0.415</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -5398,19 +5398,19 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>0.008999999999999999</v>
+        <v>0.013</v>
       </c>
       <c r="M69">
-        <v>0.001</v>
+        <v>0.003</v>
       </c>
       <c r="N69">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="O69">
         <v>0</v>
       </c>
       <c r="P69">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="Q69">
         <v>0</v>
@@ -5453,16 +5453,16 @@
         <v>3</v>
       </c>
       <c r="F70">
-        <v>0.901</v>
+        <v>0.546</v>
       </c>
       <c r="G70">
         <v>0</v>
       </c>
       <c r="H70">
-        <v>0.047</v>
+        <v>0.419</v>
       </c>
       <c r="I70">
-        <v>0.004</v>
+        <v>0.002</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -5471,19 +5471,19 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>0.024</v>
+        <v>0.021</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>0.003</v>
       </c>
       <c r="N70">
-        <v>0.05</v>
+        <v>0.3</v>
       </c>
       <c r="O70">
         <v>0</v>
       </c>
       <c r="P70">
-        <v>0.06</v>
+        <v>0.26</v>
       </c>
       <c r="Q70">
         <v>0</v>
